--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_31_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_31_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.179939706694995, 5.825485129638203]</t>
+          <t>[5.177544892942529, 5.827879943390669]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.15407537497377088, 0.49041325762157495]</t>
+          <t>[0.15407586028071396, 0.4904127723146319]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0003601899372382977</v>
+        <v>0.0003601776286841218</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0003601899372382977</v>
+        <v>0.0003601776286841218</v>
       </c>
       <c r="W2" t="n">
         <v>20.66206206206252</v>
